--- a/planilhas/CCA.xlsx
+++ b/planilhas/CCA.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5EF70-C4A6-46AD-973B-BDAA067856FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7088F0EE-FCBD-4BA0-9649-EEA354BB7134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAL" sheetId="1" r:id="rId1"/>
-    <sheet name="FIT" sheetId="2" r:id="rId2"/>
-    <sheet name="direcaoManutecaoAgronomia" sheetId="3" r:id="rId3"/>
-    <sheet name="ZOT" sheetId="4" r:id="rId4"/>
-    <sheet name="BIBLIOTECA" sheetId="5" r:id="rId5"/>
-    <sheet name="aqiLapad" sheetId="6" r:id="rId6"/>
-    <sheet name="ENR" sheetId="7" r:id="rId7"/>
-    <sheet name="fitFer" sheetId="8" r:id="rId8"/>
+    <sheet name="direcaoManutecaoAgronomia" sheetId="3" r:id="rId2"/>
+    <sheet name="ZOT" sheetId="4" r:id="rId3"/>
+    <sheet name="BIBLIOTECA" sheetId="5" r:id="rId4"/>
+    <sheet name="aqiLapad" sheetId="6" r:id="rId5"/>
+    <sheet name="ENR" sheetId="7" r:id="rId6"/>
+    <sheet name="fitFer" sheetId="8" r:id="rId7"/>
+    <sheet name="FIT" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="262">
   <si>
     <t>N. Patrimônio</t>
   </si>
@@ -464,9 +464,6 @@
     <t>Liga?</t>
   </si>
   <si>
-    <t>Gela?</t>
-  </si>
-  <si>
     <t>Vazamento?</t>
   </si>
   <si>
@@ -678,9 +675,6 @@
   </si>
   <si>
     <t>O aparelho liga?</t>
-  </si>
-  <si>
-    <t>O aparelho gela?</t>
   </si>
   <si>
     <t>Apresenta vazamento ligado?</t>
@@ -1031,7 +1025,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1119,12 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1377,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1567,13 +1567,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1792,7 +1803,7 @@
   <dimension ref="A1:J1188"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1860,10 +1871,10 @@
       <c r="F2" s="5">
         <v>12000</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="78" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2021,7 +2032,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="77" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="5">
@@ -2042,7 +2053,7 @@
       <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="77" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="6"/>
@@ -2067,7 +2078,7 @@
       <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="77" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -2166,7 +2177,7 @@
       <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="77" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2351,7 +2362,7 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="77" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="5">
@@ -12887,962 +12898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140A35-A593-4C12-A36C-D1FFE3801C0C}">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F39703-4BC7-490B-A118-D8A6B9498E70}">
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="57.75">
-      <c r="A2" s="18">
-        <v>300663</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="22">
-        <v>7000</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="57.75">
-      <c r="A3" s="23">
-        <v>327919</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="22">
-        <v>7500</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="57.75">
-      <c r="A4" s="23">
-        <v>239648</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="22">
-        <v>7500</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="57.75">
-      <c r="A5" s="23">
-        <v>433603</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="22">
-        <v>7500</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="57.75">
-      <c r="A6" s="23">
-        <v>483080</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="22">
-        <v>7500</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="57.75">
-      <c r="A7" s="23">
-        <v>482443</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="22">
-        <v>7500</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="57.75">
-      <c r="A8" s="23">
-        <v>1019918</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="22">
-        <v>22000</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="57.75">
-      <c r="A9" s="23">
-        <v>204002</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="22">
-        <v>22000</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="57.75">
-      <c r="A10" s="23">
-        <v>455219</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22">
-        <v>24000</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="57.75">
-      <c r="A11" s="23">
-        <v>337912</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="22">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="57.75">
-      <c r="A12" s="23">
-        <v>239640</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="22">
-        <v>12000</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="57.75">
-      <c r="A13" s="23">
-        <v>239641</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="22">
-        <v>7500</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="57.75">
-      <c r="A14" s="23">
-        <v>296881</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="22">
-        <v>12000</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="57.75">
-      <c r="A15" s="23">
-        <v>484798</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="22">
-        <v>9000</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="57.75">
-      <c r="A16" s="23">
-        <v>484799</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="22">
-        <v>9000</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" ht="57.75">
-      <c r="A17" s="23">
-        <v>1019894</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="22">
-        <v>12000</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" ht="57.75">
-      <c r="A18" s="23">
-        <v>482426</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="22">
-        <v>7500</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="57.75">
-      <c r="A19" s="23">
-        <v>503176</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="22">
-        <v>9000</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="57.75">
-      <c r="A20" s="23">
-        <v>482074</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="22">
-        <v>12000</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" ht="57.75">
-      <c r="A21" s="23">
-        <v>482412</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="22">
-        <v>12000</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" spans="1:10" ht="57.75">
-      <c r="A22" s="23">
-        <v>300662</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="22">
-        <v>7000</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="23">
-        <v>391402</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="22">
-        <v>7000</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="23">
-        <v>1016726</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="22">
-        <v>12000</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="23">
-        <v>484034</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="22">
-        <v>18000</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="23">
-        <v>561765</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="22">
-        <v>18000</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="23">
-        <v>561766</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="22">
-        <v>9000</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="21"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="23">
-        <v>538002</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="22">
-        <v>12000</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="23">
-        <v>482411</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="22">
-        <v>12000</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="23">
-        <v>296751</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="22">
-        <v>7500</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="25">
-        <v>321145</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="22">
-        <v>7500</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F39703-4BC7-490B-A118-D8A6B9498E70}">
-  <dimension ref="A1:M31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13887,7 +12947,7 @@
         <v>311137</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="6">
         <v>9120</v>
@@ -13904,7 +12964,7 @@
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -13917,7 +12977,7 @@
         <v>311139</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="6">
         <v>9120</v>
@@ -13947,7 +13007,7 @@
         <v>76826</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="6">
         <v>9120</v>
@@ -13956,7 +13016,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="6">
         <v>12000</v>
@@ -13977,7 +13037,7 @@
         <v>74639</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="6">
         <v>9128</v>
@@ -14007,7 +13067,7 @@
         <v>76766</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="6">
         <v>9123</v>
@@ -14016,7 +13076,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="6">
         <v>12000</v>
@@ -14031,7 +13091,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14039,7 +13099,7 @@
         <v>177258</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="6">
         <v>9117</v>
@@ -14069,7 +13129,7 @@
         <v>76828</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="6">
         <v>9122</v>
@@ -14078,7 +13138,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="6">
         <v>8300</v>
@@ -14093,7 +13153,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14101,7 +13161,7 @@
         <v>311089</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="6">
         <v>9127</v>
@@ -14131,7 +13191,7 @@
         <v>74637</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="6">
         <v>9126</v>
@@ -14161,7 +13221,7 @@
         <v>74638</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="6">
         <v>9126</v>
@@ -14191,7 +13251,7 @@
         <v>365346</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="6">
         <v>12730</v>
@@ -14221,7 +13281,7 @@
         <v>171020</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="6">
         <v>9283</v>
@@ -14244,14 +13304,14 @@
       <c r="I13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7">
         <v>151972</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="6">
         <v>9284</v>
@@ -14281,7 +13341,7 @@
         <v>171018</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="6">
         <v>9284</v>
@@ -14311,7 +13371,7 @@
         <v>151973</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="6">
         <v>9285</v>
@@ -14336,12 +13396,12 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:20">
       <c r="A17" s="7">
         <v>171021</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="6">
         <v>9285</v>
@@ -14366,12 +13426,12 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:20">
       <c r="A18" s="7">
         <v>171017</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="6">
         <v>9279</v>
@@ -14395,13 +13455,14 @@
         <v>15</v>
       </c>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="T18" s="76"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="7">
         <v>171019</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="6">
         <v>9279</v>
@@ -14426,12 +13487,12 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:20">
       <c r="A20" s="7">
         <v>179881</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="6">
         <v>9280</v>
@@ -14457,12 +13518,12 @@
       <c r="J20" s="6"/>
       <c r="M20" s="76"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:20">
       <c r="A21" s="7">
         <v>179885</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="6">
         <v>9280</v>
@@ -14487,12 +13548,12 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:20">
       <c r="A22" s="7">
         <v>179893</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="6">
         <v>9280</v>
@@ -14517,12 +13578,12 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:20">
       <c r="A23" s="7">
         <v>275233</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="6">
         <v>9287</v>
@@ -14547,12 +13608,12 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:20">
       <c r="A24" s="7">
         <v>272408</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="6">
         <v>9290</v>
@@ -14577,12 +13638,12 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:20">
       <c r="A25" s="7">
         <v>105487</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="6">
         <v>9290</v>
@@ -14591,7 +13652,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" s="6">
         <v>24000</v>
@@ -14607,12 +13668,12 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:20">
       <c r="A26" s="7">
         <v>275234</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="6">
         <v>9291</v>
@@ -14637,12 +13698,12 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:20">
       <c r="A27" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="6">
         <v>9286</v>
@@ -14667,12 +13728,12 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:20">
       <c r="A28" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="6">
         <v>9286</v>
@@ -14697,12 +13758,12 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:20">
       <c r="A29" s="7">
         <v>121621</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="6">
         <v>9286</v>
@@ -14727,7 +13788,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:20">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -14739,7 +13800,7 @@
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:20">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -14756,12 +13817,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8019441-33EC-4F22-8155-416BA341A523}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K21:K22"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -14803,13 +13864,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>11</v>
@@ -14823,46 +13884,64 @@
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="82" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="29">
+        <v>177479</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="29">
-        <v>177479</v>
+        <v>53221</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11">
+        <v>7500</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
@@ -14877,12 +13956,12 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="29">
-        <v>53221</v>
+        <v>53223</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -14895,7 +13974,7 @@
         <v>7500</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>15</v>
@@ -14907,22 +13986,22 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="29">
-        <v>53223</v>
+        <v>53224</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>50</v>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F6" s="11">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>13</v>
@@ -14937,28 +14016,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="29">
-        <v>53224</v>
+        <v>170654</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F7" s="11">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>15</v>
@@ -14967,25 +14046,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="29">
-        <v>170654</v>
+        <v>74418</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F8" s="11">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>13</v>
@@ -14996,29 +14075,27 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="29">
-        <v>74418</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="11">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>15</v>
@@ -15028,7 +14105,7 @@
     <row r="10" spans="1:10">
       <c r="A10" s="7"/>
       <c r="B10" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>151</v>
@@ -15040,7 +14117,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="11">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>15</v>
@@ -15056,63 +14133,63 @@
     <row r="11" spans="1:10">
       <c r="A11" s="7"/>
       <c r="B11" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F11" s="11">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7"/>
       <c r="B12" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F12" s="11">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>153</v>
@@ -15121,10 +14198,10 @@
         <v>31</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="11">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>15</v>
@@ -15140,19 +14217,19 @@
     <row r="14" spans="1:10">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="F14" s="11">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>15</v>
@@ -15166,32 +14243,16 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="11">
-        <v>7500</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="14"/>
@@ -15205,30 +14266,18 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="21" spans="1:11">
+    <row r="20" spans="11:11">
+      <c r="K20" s="76"/>
+    </row>
+    <row r="21" spans="11:11">
       <c r="K21" s="76"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="K22" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB01DFA-4B44-45F9-B969-D6A5105BC89B}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -15275,13 +14324,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="32" t="s">
         <v>144</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>145</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>11</v>
@@ -15302,7 +14351,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -15310,10 +14359,10 @@
         <v>310610</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -15322,7 +14371,7 @@
         <v>46</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>13</v>
@@ -15334,7 +14383,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15342,19 +14391,19 @@
         <v>179882</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -15366,7 +14415,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -15374,19 +14423,19 @@
         <v>179892</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
@@ -15398,7 +14447,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -15406,19 +14455,19 @@
         <v>179884</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>15</v>
@@ -15430,7 +14479,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -15438,19 +14487,19 @@
         <v>179889</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
@@ -15462,7 +14511,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="285">
@@ -15470,19 +14519,19 @@
         <v>179888</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -15494,7 +14543,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -15502,10 +14551,10 @@
         <v>311088</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
@@ -15514,7 +14563,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>13</v>
@@ -15526,7 +14575,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -15534,10 +14583,10 @@
         <v>170660</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -15546,7 +14595,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>15</v>
@@ -15558,7 +14607,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -15566,10 +14615,10 @@
         <v>170652</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -15578,7 +14627,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>15</v>
@@ -15590,7 +14639,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -15598,10 +14647,10 @@
         <v>170654</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -15610,7 +14659,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>15</v>
@@ -15622,7 +14671,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -15654,12 +14703,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEA0E50-D05B-4CF4-9C19-FBEB63E6F6C2}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15667,9 +14716,9 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75">
+    <row r="1" spans="1:12" ht="75">
       <c r="A1" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -15678,7 +14727,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>4</v>
@@ -15687,350 +14736,351 @@
         <v>5</v>
       </c>
       <c r="G1" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>172</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>174</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="39">
         <v>395917</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="42">
         <v>18000</v>
       </c>
       <c r="G2" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="44">
         <v>230416</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="47">
         <v>9000</v>
       </c>
       <c r="G3" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="39">
         <v>311129</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="42">
         <v>12000</v>
       </c>
       <c r="G4" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="44">
         <v>181077</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F5" s="47">
         <v>9000</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="39">
         <v>311085</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="42">
         <v>9000</v>
       </c>
       <c r="G6" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="44">
         <v>177010</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="47">
         <v>9000</v>
       </c>
       <c r="G7" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="39">
         <v>230443</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="42">
         <v>9000</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="44">
         <v>311130</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="47">
         <v>12000</v>
       </c>
       <c r="G9" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="39">
         <v>401735</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="42">
         <v>12000</v>
       </c>
       <c r="G10" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="44">
         <v>371133</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="47">
         <v>9000</v>
       </c>
       <c r="G11" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>12</v>
@@ -16039,62 +15089,62 @@
         <v>9000</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>196</v>
-      </c>
       <c r="C13" s="45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F13" s="47">
         <v>18000</v>
       </c>
       <c r="G13" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>75</v>
@@ -16103,19 +15153,19 @@
         <v>9000</v>
       </c>
       <c r="G14" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -16132,12 +15182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C853-311B-4A33-866F-EA6749F145FA}">
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16182,115 +15232,115 @@
         <v>311017</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" s="54">
         <v>14856</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="55">
         <v>22000</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="35.25" thickBot="1">
       <c r="A3" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="54">
         <v>8609</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="58"/>
       <c r="G3" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="35.25" thickBot="1">
       <c r="A4" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="54">
         <v>8609</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="58"/>
       <c r="G4" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35.25" thickBot="1">
       <c r="A5" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="54">
         <v>8609</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
       <c r="G5" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
@@ -16298,29 +15348,29 @@
         <v>204870</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" s="54">
         <v>8609</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="55">
         <v>18000</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" thickBot="1">
@@ -16328,28 +15378,28 @@
         <v>326402</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="54">
         <v>8610</v>
       </c>
       <c r="D7" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="56" t="s">
         <v>176</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>178</v>
       </c>
       <c r="J7" s="58"/>
     </row>
@@ -16358,7 +15408,7 @@
         <v>14358</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" s="54">
         <v>8611</v>
@@ -16367,7 +15417,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="54" t="s">
@@ -16380,7 +15430,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="125.25" thickBot="1">
@@ -16388,7 +15438,7 @@
         <v>390595</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="54">
         <v>8612</v>
@@ -16403,16 +15453,16 @@
         <v>12000</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="125.25" thickBot="1">
@@ -16420,7 +15470,7 @@
         <v>390651</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" s="54">
         <v>8612</v>
@@ -16435,16 +15485,16 @@
         <v>12000</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
@@ -16452,7 +15502,7 @@
         <v>204852</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" s="54">
         <v>8613</v>
@@ -16463,13 +15513,13 @@
       <c r="E11" s="58"/>
       <c r="F11" s="58"/>
       <c r="G11" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J11" s="59"/>
     </row>
@@ -16478,26 +15528,26 @@
         <v>14361</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" s="54">
         <v>8617</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="58"/>
       <c r="G12" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J12" s="58"/>
     </row>
@@ -16506,26 +15556,26 @@
         <v>172227</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C13" s="54">
         <v>8618</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E13" s="54" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="58"/>
       <c r="G13" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J13" s="58"/>
     </row>
@@ -16534,7 +15584,7 @@
         <v>172237</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="54">
         <v>8619</v>
@@ -16547,20 +15597,20 @@
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="61"/>
       <c r="B15" s="54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C15" s="54">
         <v>8620</v>
@@ -16578,26 +15628,26 @@
         <v>14366</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C16" s="54">
         <v>8621</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" s="54" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="58"/>
       <c r="G16" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J16" s="58"/>
     </row>
@@ -16606,7 +15656,7 @@
         <v>14367</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C17" s="54">
         <v>8621</v>
@@ -16619,16 +15669,16 @@
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I17" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J17" s="54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
@@ -16636,13 +15686,13 @@
         <v>130407</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C18" s="54">
         <v>8622</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="54" t="s">
         <v>76</v>
@@ -16651,13 +15701,13 @@
         <v>9000</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J18" s="58"/>
     </row>
@@ -16666,26 +15716,26 @@
         <v>204869</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C19" s="54">
         <v>8623</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E19" s="58"/>
       <c r="F19" s="55">
         <v>18000</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J19" s="58"/>
     </row>
@@ -16694,16 +15744,16 @@
         <v>299256</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C20" s="54">
         <v>8624</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="62">
         <v>7500</v>
@@ -16718,24 +15768,24 @@
         <v>21806</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C21" s="54">
         <v>8625</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
       <c r="G21" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H21" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J21" s="58"/>
     </row>
@@ -16744,24 +15794,24 @@
         <v>204869</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C22" s="54">
         <v>8625</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" s="58"/>
       <c r="F22" s="58"/>
       <c r="G22" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J22" s="58"/>
     </row>
@@ -16770,24 +15820,24 @@
         <v>299252</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" s="54">
         <v>8625</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E23" s="58"/>
       <c r="F23" s="58"/>
       <c r="G23" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J23" s="58"/>
     </row>
@@ -16796,27 +15846,27 @@
         <v>3679</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="54">
         <v>8626</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
       <c r="G24" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I24" s="56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J24" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="46.5" thickBot="1">
@@ -16824,27 +15874,27 @@
         <v>230584</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C25" s="54">
         <v>8627</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="58"/>
       <c r="G25" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I25" s="56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J25" s="54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="80.25" thickBot="1">
@@ -16852,33 +15902,33 @@
         <v>204865</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C26" s="54">
         <v>8629</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
       <c r="G26" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J26" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="61"/>
       <c r="B27" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" s="54">
         <v>14926</v>
@@ -16896,24 +15946,24 @@
         <v>21805</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C28" s="54">
         <v>16294</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
       <c r="G28" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J28" s="58"/>
     </row>
@@ -16922,26 +15972,26 @@
         <v>14370</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C29" s="54">
         <v>8631</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E29" s="54" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="58"/>
       <c r="G29" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I29" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J29" s="58"/>
     </row>
@@ -16950,13 +16000,13 @@
         <v>157712</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C30" s="54">
         <v>8632</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E30" s="54" t="s">
         <v>73</v>
@@ -16965,16 +16015,16 @@
         <v>9000</v>
       </c>
       <c r="G30" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H30" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I30" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
@@ -16982,13 +16032,13 @@
         <v>130406</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C31" s="54">
         <v>8633</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E31" s="54" t="s">
         <v>76</v>
@@ -17004,7 +16054,7 @@
         <v>14</v>
       </c>
       <c r="J31" s="59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1">
@@ -17012,13 +16062,13 @@
         <v>326512</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" s="54">
         <v>8636</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E32" s="58"/>
       <c r="F32" s="62">
@@ -17034,16 +16084,16 @@
         <v>204868</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C33" s="54">
         <v>8637</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F33" s="55">
         <v>18000</v>
@@ -17052,13 +16102,13 @@
         <v>17</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I33" s="56" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1">
@@ -17066,28 +16116,28 @@
         <v>14368</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C34" s="54">
         <v>8638</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F34" s="55">
         <v>22000</v>
       </c>
       <c r="G34" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H34" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J34" s="58"/>
     </row>
@@ -17096,28 +16146,28 @@
         <v>14369</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C35" s="54">
         <v>8638</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E35" s="54" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F35" s="55">
         <v>22000</v>
       </c>
       <c r="G35" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H35" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I35" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J35" s="58"/>
     </row>
@@ -17126,35 +16176,35 @@
         <v>299258</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C36" s="54">
         <v>8639</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E36" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" s="62">
         <v>7500</v>
       </c>
       <c r="G36" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H36" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J36" s="58"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1">
       <c r="A37" s="61"/>
       <c r="B37" s="54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C37" s="54">
         <v>8640</v>
@@ -17169,16 +16219,16 @@
     </row>
     <row r="38" spans="1:10" ht="35.25" thickBot="1">
       <c r="A38" s="53" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C38" s="54">
         <v>8641</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E38" s="54" t="s">
         <v>75</v>
@@ -17187,16 +16237,16 @@
         <v>12000</v>
       </c>
       <c r="G38" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H38" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J38" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1">
@@ -17204,31 +16254,31 @@
         <v>204866</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54">
         <v>12746</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F39" s="55">
         <v>18000</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I39" s="56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J39" s="57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1">
@@ -17236,31 +16286,31 @@
         <v>204867</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C40" s="54">
         <v>8642</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E40" s="54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F40" s="55">
         <v>18000</v>
       </c>
       <c r="G40" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H40" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J40" s="66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1">
@@ -17268,39 +16318,39 @@
         <v>365347</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C41" s="54">
         <v>12729</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
       <c r="G41" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H41" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J41" s="58"/>
     </row>
     <row r="42" spans="1:10" ht="24" thickBot="1">
       <c r="A42" s="53" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C42" s="54">
         <v>14928</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E42" s="54" t="s">
         <v>75</v>
@@ -17309,16 +16359,16 @@
         <v>12000</v>
       </c>
       <c r="G42" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J42" s="57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1">
@@ -17326,31 +16376,31 @@
         <v>306755</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C43" s="54">
         <v>14929</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="55">
         <v>12000</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H43" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I43" s="56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J43" s="57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -17358,12 +16408,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD3D8A5-F551-4975-BD19-16D4DDD2F61C}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17408,31 +16458,31 @@
         <v>14513</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="71">
         <v>36000</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H2" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J2" s="73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R2" s="76"/>
     </row>
@@ -17441,31 +16491,31 @@
         <v>14514</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="74">
         <v>36000</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="150">
@@ -17473,31 +16523,31 @@
         <v>14515</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>256</v>
+        <v>249</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>254</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="74">
         <v>36000</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="150">
@@ -17505,29 +16555,29 @@
         <v>14516</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="78"/>
+        <v>249</v>
+      </c>
+      <c r="C5" s="84"/>
       <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="74">
         <v>36000</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="150">
@@ -17535,31 +16585,31 @@
         <v>14517</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="74">
         <v>36000</v>
       </c>
       <c r="G6" s="72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J6" s="72" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="191.25">
@@ -17567,31 +16617,31 @@
         <v>14518</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="74">
         <v>36000</v>
       </c>
       <c r="G7" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="191.25">
@@ -17599,31 +16649,31 @@
         <v>14519</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>260</v>
+        <v>249</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>258</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="74">
         <v>36000</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="175.5">
@@ -17631,29 +16681,29 @@
         <v>14520</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="78"/>
+        <v>249</v>
+      </c>
+      <c r="C9" s="84"/>
       <c r="D9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="74">
         <v>36000</v>
       </c>
       <c r="G9" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="150">
@@ -17661,31 +16711,31 @@
         <v>14521</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="74">
         <v>12000</v>
       </c>
       <c r="G10" s="72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -17695,4 +16745,959 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D140A35-A593-4C12-A36C-D1FFE3801C0C}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57.75">
+      <c r="A2" s="18">
+        <v>300663</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="57.75">
+      <c r="A3" s="23">
+        <v>327919</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="57.75">
+      <c r="A4" s="23">
+        <v>239648</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="M4" s="76"/>
+    </row>
+    <row r="5" spans="1:13" ht="57.75">
+      <c r="A5" s="23">
+        <v>433603</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" ht="57.75">
+      <c r="A6" s="23">
+        <v>483080</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="57.75">
+      <c r="A7" s="23">
+        <v>482443</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="57.75">
+      <c r="A8" s="23">
+        <v>1019918</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="22">
+        <v>22000</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="57.75">
+      <c r="A9" s="23">
+        <v>204002</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="22">
+        <v>22000</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" ht="57.75">
+      <c r="A10" s="23">
+        <v>455219</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22">
+        <v>24000</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" ht="57.75">
+      <c r="A11" s="23">
+        <v>337912</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="22">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" ht="57.75">
+      <c r="A12" s="23">
+        <v>239640</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="22">
+        <v>12000</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="57.75">
+      <c r="A13" s="23">
+        <v>239641</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="57.75">
+      <c r="A14" s="23">
+        <v>296881</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="22">
+        <v>12000</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" ht="57.75">
+      <c r="A15" s="23">
+        <v>484798</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="57.75">
+      <c r="A16" s="23">
+        <v>484799</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" ht="57.75">
+      <c r="A17" s="23">
+        <v>1019894</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="22">
+        <v>12000</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" ht="57.75">
+      <c r="A18" s="23">
+        <v>482426</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="57.75">
+      <c r="A19" s="23">
+        <v>503176</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="57.75">
+      <c r="A20" s="23">
+        <v>482074</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="22">
+        <v>12000</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="57.75">
+      <c r="A21" s="23">
+        <v>482412</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="22">
+        <v>12000</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" ht="57.75">
+      <c r="A22" s="23">
+        <v>300662</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="23">
+        <v>391402</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="22">
+        <v>7000</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="23">
+        <v>1016726</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="22">
+        <v>12000</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="23">
+        <v>484034</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="22">
+        <v>18000</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="23">
+        <v>561765</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="22">
+        <v>18000</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="23">
+        <v>561766</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="22">
+        <v>9000</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="23">
+        <v>538002</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="22">
+        <v>12000</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="23">
+        <v>482411</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="22">
+        <v>12000</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="23">
+        <v>296751</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="25">
+        <v>321145</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="22">
+        <v>7500</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>